--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Spp1-Itga9.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Spp1-Itga9.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>209.0063303333334</v>
+        <v>0.3399353333333333</v>
       </c>
       <c r="H2">
-        <v>627.018991</v>
+        <v>1.019806</v>
       </c>
       <c r="I2">
-        <v>0.6751081226665357</v>
+        <v>0.09929991924017606</v>
       </c>
       <c r="J2">
-        <v>0.6751081226665357</v>
+        <v>0.09929991924017606</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.398034</v>
+        <v>0.8366046666666667</v>
       </c>
       <c r="N2">
-        <v>4.194102</v>
+        <v>2.509814</v>
       </c>
       <c r="O2">
-        <v>0.139066772576779</v>
+        <v>0.08025679986157715</v>
       </c>
       <c r="P2">
-        <v>0.139066772576779</v>
+        <v>0.08025679986157715</v>
       </c>
       <c r="Q2">
-        <v>292.1979560212313</v>
+        <v>0.2843914862315555</v>
       </c>
       <c r="R2">
-        <v>2629.781604191082</v>
+        <v>2.559523376084</v>
       </c>
       <c r="S2">
-        <v>0.09388510775960332</v>
+        <v>0.007969493744729585</v>
       </c>
       <c r="T2">
-        <v>0.09388510775960332</v>
+        <v>0.007969493744729585</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>209.0063303333334</v>
+        <v>0.3399353333333333</v>
       </c>
       <c r="H3">
-        <v>627.018991</v>
+        <v>1.019806</v>
       </c>
       <c r="I3">
-        <v>0.6751081226665357</v>
+        <v>0.09929991924017606</v>
       </c>
       <c r="J3">
-        <v>0.6751081226665357</v>
+        <v>0.09929991924017606</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.939250333333334</v>
+        <v>7.939250333333333</v>
       </c>
       <c r="N3">
         <v>23.817751</v>
       </c>
       <c r="O3">
-        <v>0.7897418235434784</v>
+        <v>0.7616247559221037</v>
       </c>
       <c r="P3">
-        <v>0.7897418235434783</v>
+        <v>0.7616247559221038</v>
       </c>
       <c r="Q3">
-        <v>1659.353577767694</v>
+        <v>2.698831708478444</v>
       </c>
       <c r="R3">
-        <v>14934.18219990924</v>
+        <v>24.289485376306</v>
       </c>
       <c r="S3">
-        <v>0.5331611198836843</v>
+        <v>0.07562927675438369</v>
       </c>
       <c r="T3">
-        <v>0.5331611198836842</v>
+        <v>0.0756292767543837</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>209.0063303333334</v>
+        <v>0.3399353333333333</v>
       </c>
       <c r="H4">
-        <v>627.018991</v>
+        <v>1.019806</v>
       </c>
       <c r="I4">
-        <v>0.6751081226665357</v>
+        <v>0.09929991924017606</v>
       </c>
       <c r="J4">
-        <v>0.6751081226665357</v>
+        <v>0.09929991924017606</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.715685</v>
+        <v>1.648242</v>
       </c>
       <c r="N4">
-        <v>2.147055</v>
+        <v>4.944726</v>
       </c>
       <c r="O4">
-        <v>0.0711914038797426</v>
+        <v>0.1581184442163192</v>
       </c>
       <c r="P4">
-        <v>0.07119140387974258</v>
+        <v>0.1581184442163192</v>
       </c>
       <c r="Q4">
-        <v>149.5826955246117</v>
+        <v>0.560295693684</v>
       </c>
       <c r="R4">
-        <v>1346.244259721505</v>
+        <v>5.042661243156</v>
       </c>
       <c r="S4">
-        <v>0.04806189502324815</v>
+        <v>0.01570114874106278</v>
       </c>
       <c r="T4">
-        <v>0.04806189502324815</v>
+        <v>0.01570114874106278</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>4.205225</v>
       </c>
       <c r="I5">
-        <v>0.004527744128790482</v>
+        <v>0.4094685684206303</v>
       </c>
       <c r="J5">
-        <v>0.004527744128790482</v>
+        <v>0.4094685684206303</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.398034</v>
+        <v>0.8366046666666667</v>
       </c>
       <c r="N5">
-        <v>4.194102</v>
+        <v>2.509814</v>
       </c>
       <c r="O5">
-        <v>0.139066772576779</v>
+        <v>0.08025679986157715</v>
       </c>
       <c r="P5">
-        <v>0.139066772576779</v>
+        <v>0.08025679986157715</v>
       </c>
       <c r="Q5">
-        <v>1.959682509216666</v>
+        <v>1.172703619794444</v>
       </c>
       <c r="R5">
-        <v>17.63714258295</v>
+        <v>10.55433257815</v>
       </c>
       <c r="S5">
-        <v>0.0006296587630443522</v>
+        <v>0.03286263694534104</v>
       </c>
       <c r="T5">
-        <v>0.0006296587630443522</v>
+        <v>0.03286263694534104</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>4.205225</v>
       </c>
       <c r="I6">
-        <v>0.004527744128790482</v>
+        <v>0.4094685684206303</v>
       </c>
       <c r="J6">
-        <v>0.004527744128790482</v>
+        <v>0.4094685684206303</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +800,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.939250333333334</v>
+        <v>7.939250333333333</v>
       </c>
       <c r="N6">
         <v>23.817751</v>
       </c>
       <c r="O6">
-        <v>0.7897418235434784</v>
+        <v>0.7616247559221037</v>
       </c>
       <c r="P6">
-        <v>0.7897418235434783</v>
+        <v>0.7616247559221038</v>
       </c>
       <c r="Q6">
-        <v>11.12877799433056</v>
+        <v>11.12877799433055</v>
       </c>
       <c r="R6">
         <v>100.159001948975</v>
       </c>
       <c r="S6">
-        <v>0.003575748904809273</v>
+        <v>0.3118613984811358</v>
       </c>
       <c r="T6">
-        <v>0.003575748904809273</v>
+        <v>0.3118613984811358</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>4.205225</v>
       </c>
       <c r="I7">
-        <v>0.004527744128790482</v>
+        <v>0.4094685684206303</v>
       </c>
       <c r="J7">
-        <v>0.004527744128790482</v>
+        <v>0.4094685684206303</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.715685</v>
+        <v>1.648242</v>
       </c>
       <c r="N7">
-        <v>2.147055</v>
+        <v>4.944726</v>
       </c>
       <c r="O7">
-        <v>0.0711914038797426</v>
+        <v>0.1581184442163192</v>
       </c>
       <c r="P7">
-        <v>0.07119140387974258</v>
+        <v>0.1581184442163192</v>
       </c>
       <c r="Q7">
-        <v>1.003205484708333</v>
+        <v>2.310409488149999</v>
       </c>
       <c r="R7">
-        <v>9.028849362374999</v>
+        <v>20.79368539335</v>
       </c>
       <c r="S7">
-        <v>0.0003223364609368565</v>
+        <v>0.0647445329941535</v>
       </c>
       <c r="T7">
-        <v>0.0003223364609368564</v>
+        <v>0.06474453299415353</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>99.18134533333331</v>
+        <v>1.681642333333333</v>
       </c>
       <c r="H8">
-        <v>297.5440359999999</v>
+        <v>5.044927</v>
       </c>
       <c r="I8">
-        <v>0.3203641332046737</v>
+        <v>0.4912315123391937</v>
       </c>
       <c r="J8">
-        <v>0.3203641332046737</v>
+        <v>0.4912315123391937</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.398034</v>
+        <v>0.8366046666666667</v>
       </c>
       <c r="N8">
-        <v>4.194102</v>
+        <v>2.509814</v>
       </c>
       <c r="O8">
-        <v>0.139066772576779</v>
+        <v>0.08025679986157715</v>
       </c>
       <c r="P8">
-        <v>0.139066772576779</v>
+        <v>0.08025679986157715</v>
       </c>
       <c r="Q8">
-        <v>138.6588929417413</v>
+        <v>1.406869823730889</v>
       </c>
       <c r="R8">
-        <v>1247.930036475672</v>
+        <v>12.661828413578</v>
       </c>
       <c r="S8">
-        <v>0.04455200605413127</v>
+        <v>0.03942466917150653</v>
       </c>
       <c r="T8">
-        <v>0.04455200605413127</v>
+        <v>0.03942466917150653</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>99.18134533333331</v>
+        <v>1.681642333333333</v>
       </c>
       <c r="H9">
-        <v>297.5440359999999</v>
+        <v>5.044927</v>
       </c>
       <c r="I9">
-        <v>0.3203641332046737</v>
+        <v>0.4912315123391937</v>
       </c>
       <c r="J9">
-        <v>0.3203641332046737</v>
+        <v>0.4912315123391937</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -986,28 +986,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>7.939250333333334</v>
+        <v>7.939250333333333</v>
       </c>
       <c r="N9">
         <v>23.817751</v>
       </c>
       <c r="O9">
-        <v>0.7897418235434784</v>
+        <v>0.7616247559221037</v>
       </c>
       <c r="P9">
-        <v>0.7897418235434783</v>
+        <v>0.7616247559221038</v>
       </c>
       <c r="Q9">
-        <v>787.4255289981149</v>
+        <v>13.35097945546411</v>
       </c>
       <c r="R9">
-        <v>7086.829760983035</v>
+        <v>120.158815099177</v>
       </c>
       <c r="S9">
-        <v>0.2530049547549848</v>
+        <v>0.3741340806865842</v>
       </c>
       <c r="T9">
-        <v>0.2530049547549848</v>
+        <v>0.3741340806865843</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>99.18134533333331</v>
+        <v>1.681642333333333</v>
       </c>
       <c r="H10">
-        <v>297.5440359999999</v>
+        <v>5.044927</v>
       </c>
       <c r="I10">
-        <v>0.3203641332046737</v>
+        <v>0.4912315123391937</v>
       </c>
       <c r="J10">
-        <v>0.3203641332046737</v>
+        <v>0.4912315123391937</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.715685</v>
+        <v>1.648242</v>
       </c>
       <c r="N10">
-        <v>2.147055</v>
+        <v>4.944726</v>
       </c>
       <c r="O10">
-        <v>0.0711914038797426</v>
+        <v>0.1581184442163192</v>
       </c>
       <c r="P10">
-        <v>0.07119140387974258</v>
+        <v>0.1581184442163192</v>
       </c>
       <c r="Q10">
-        <v>70.98260113488665</v>
+        <v>2.771753522778</v>
       </c>
       <c r="R10">
-        <v>638.8434102139798</v>
+        <v>24.945781705002</v>
       </c>
       <c r="S10">
-        <v>0.02280717239555758</v>
+        <v>0.0776727624811029</v>
       </c>
       <c r="T10">
-        <v>0.02280717239555757</v>
+        <v>0.07767276248110291</v>
       </c>
     </row>
   </sheetData>
